--- a/biology/Botanique/Parodia_buiningii/Parodia_buiningii.xlsx
+++ b/biology/Botanique/Parodia_buiningii/Parodia_buiningii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Parodia buiningii est une espèce de plantes à fleurs du genre Parodia, famille des Cactaceae. On le retrouve en Uruguay (Artigas, Rivera et Salto) et au Brésil (Rio Grande do Sul).
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Parodia buiningii est un cactus globulaire pouvant atteindre 8 cm de haut sur 12 cm de large, on lui compte environ 16 côtes tuberculées.
 Les aréoles sont blanches et laineuse, on distingue 4 épines centrales brunes.
@@ -544,7 +558,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Parodia : du botaniste argentin, Lorenzo Raimundo Parodi.
 buiningii : en l'honneur du personnage Albert Frederik Henrik Buining.
